--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd14</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.14149760935919</v>
+        <v>1.324656666666667</v>
       </c>
       <c r="H2">
-        <v>1.14149760935919</v>
+        <v>3.97397</v>
       </c>
       <c r="I2">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="J2">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>185.0464667264161</v>
+        <v>216.8621727850355</v>
       </c>
       <c r="R2">
-        <v>185.0464667264161</v>
+        <v>1951.75955506532</v>
       </c>
       <c r="S2">
-        <v>0.00106126595100485</v>
+        <v>0.001160627776374151</v>
       </c>
       <c r="T2">
-        <v>0.00106126595100485</v>
+        <v>0.001160627776374151</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.14149760935919</v>
+        <v>1.324656666666667</v>
       </c>
       <c r="H3">
-        <v>1.14149760935919</v>
+        <v>3.97397</v>
       </c>
       <c r="I3">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="J3">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>196.9711503999584</v>
+        <v>228.58076344103</v>
       </c>
       <c r="R3">
-        <v>196.9711503999584</v>
+        <v>2057.22687096927</v>
       </c>
       <c r="S3">
-        <v>0.001129655588392221</v>
+        <v>0.001223344669968995</v>
       </c>
       <c r="T3">
-        <v>0.001129655588392221</v>
+        <v>0.001223344669968995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.14149760935919</v>
+        <v>1.324656666666667</v>
       </c>
       <c r="H4">
-        <v>1.14149760935919</v>
+        <v>3.97397</v>
       </c>
       <c r="I4">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="J4">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>127.0119174596546</v>
+        <v>147.6835401385789</v>
       </c>
       <c r="R4">
-        <v>127.0119174596546</v>
+        <v>1329.15186124721</v>
       </c>
       <c r="S4">
-        <v>0.0007284301384206197</v>
+        <v>0.0007903896590024816</v>
       </c>
       <c r="T4">
-        <v>0.0007284301384206197</v>
+        <v>0.0007903896590024818</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.14149760935919</v>
+        <v>1.324656666666667</v>
       </c>
       <c r="H5">
-        <v>1.14149760935919</v>
+        <v>3.97397</v>
       </c>
       <c r="I5">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="J5">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>98.48230613863011</v>
+        <v>115.1894710177322</v>
       </c>
       <c r="R5">
-        <v>98.48230613863011</v>
+        <v>1036.70523915959</v>
       </c>
       <c r="S5">
-        <v>0.0005648090456970826</v>
+        <v>0.0006164841839039741</v>
       </c>
       <c r="T5">
-        <v>0.0005648090456970826</v>
+        <v>0.0006164841839039742</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.14149760935919</v>
+        <v>1.324656666666667</v>
       </c>
       <c r="H6">
-        <v>1.14149760935919</v>
+        <v>3.97397</v>
       </c>
       <c r="I6">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="J6">
-        <v>0.003857554903169128</v>
+        <v>0.004214330013715658</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>65.10646419573223</v>
+        <v>79.12752261858887</v>
       </c>
       <c r="R6">
-        <v>65.10646419573223</v>
+        <v>712.1477035672999</v>
       </c>
       <c r="S6">
-        <v>0.0003733941796543546</v>
+        <v>0.0004234837244660557</v>
       </c>
       <c r="T6">
-        <v>0.0003733941796543546</v>
+        <v>0.0004234837244660558</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>135.569176998339</v>
+        <v>0.484797</v>
       </c>
       <c r="H7">
-        <v>135.569176998339</v>
+        <v>1.454391</v>
       </c>
       <c r="I7">
-        <v>0.4581398499311152</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="J7">
-        <v>0.4581398499311152</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>21976.91610991089</v>
+        <v>79.367079353644</v>
       </c>
       <c r="R7">
-        <v>21976.91610991089</v>
+        <v>714.3037141827959</v>
       </c>
       <c r="S7">
-        <v>0.1260405193794975</v>
+        <v>0.0004247658115961061</v>
       </c>
       <c r="T7">
-        <v>0.1260405193794975</v>
+        <v>0.0004247658115961062</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>135.569176998339</v>
+        <v>0.484797</v>
       </c>
       <c r="H8">
-        <v>135.569176998339</v>
+        <v>1.454391</v>
       </c>
       <c r="I8">
-        <v>0.4581398499311152</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="J8">
-        <v>0.4581398499311152</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>23393.14294940046</v>
+        <v>83.65584167010898</v>
       </c>
       <c r="R8">
-        <v>23393.14294940046</v>
+        <v>752.902575030981</v>
       </c>
       <c r="S8">
-        <v>0.1341627675382349</v>
+        <v>0.0004477189002183903</v>
       </c>
       <c r="T8">
-        <v>0.1341627675382349</v>
+        <v>0.0004477189002183904</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>135.569176998339</v>
+        <v>0.484797</v>
       </c>
       <c r="H9">
-        <v>135.569176998339</v>
+        <v>1.454391</v>
       </c>
       <c r="I9">
-        <v>0.4581398499311152</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="J9">
-        <v>0.4581398499311152</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>15084.48285638779</v>
+        <v>54.049127604307</v>
       </c>
       <c r="R9">
-        <v>15084.48285638779</v>
+        <v>486.442148438763</v>
       </c>
       <c r="S9">
-        <v>0.08651150344669316</v>
+        <v>0.0002892663020974688</v>
       </c>
       <c r="T9">
-        <v>0.08651150344669316</v>
+        <v>0.0002892663020974689</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>135.569176998339</v>
+        <v>0.484797</v>
       </c>
       <c r="H10">
-        <v>135.569176998339</v>
+        <v>1.454391</v>
       </c>
       <c r="I10">
-        <v>0.4581398499311152</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="J10">
-        <v>0.4581398499311152</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>11696.18322688173</v>
+        <v>42.156968961253</v>
       </c>
       <c r="R10">
-        <v>11696.18322688173</v>
+        <v>379.412720651277</v>
       </c>
       <c r="S10">
-        <v>0.06707915711654949</v>
+        <v>0.0002256204875004806</v>
       </c>
       <c r="T10">
-        <v>0.06707915711654949</v>
+        <v>0.0002256204875004807</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>135.569176998339</v>
+        <v>0.484797</v>
       </c>
       <c r="H11">
-        <v>135.569176998339</v>
+        <v>1.454391</v>
       </c>
       <c r="I11">
-        <v>0.4581398499311152</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="J11">
-        <v>0.4581398499311152</v>
+        <v>0.001542357804155021</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>7732.324356984151</v>
+        <v>28.95904014090999</v>
       </c>
       <c r="R11">
-        <v>7732.324356984151</v>
+        <v>260.6313612681899</v>
       </c>
       <c r="S11">
-        <v>0.04434590245014012</v>
+        <v>0.0001549863027425751</v>
       </c>
       <c r="T11">
-        <v>0.04434590245014012</v>
+        <v>0.0001549863027425751</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>159.201538701672</v>
+        <v>139.106753</v>
       </c>
       <c r="H12">
-        <v>159.201538701672</v>
+        <v>417.320259</v>
       </c>
       <c r="I12">
-        <v>0.5380025951657157</v>
+        <v>0.442561290808761</v>
       </c>
       <c r="J12">
-        <v>0.5380025951657157</v>
+        <v>0.4425612908087611</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>25807.92284855609</v>
+        <v>22773.44270690362</v>
       </c>
       <c r="R12">
-        <v>25807.92284855609</v>
+        <v>204960.9843621326</v>
       </c>
       <c r="S12">
-        <v>0.1480118495092713</v>
+        <v>0.1218815150187482</v>
       </c>
       <c r="T12">
-        <v>0.1480118495092713</v>
+        <v>0.1218815150187482</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>159.201538701672</v>
+        <v>139.106753</v>
       </c>
       <c r="H13">
-        <v>159.201538701672</v>
+        <v>417.320259</v>
       </c>
       <c r="I13">
-        <v>0.5380025951657157</v>
+        <v>0.442561290808761</v>
       </c>
       <c r="J13">
-        <v>0.5380025951657157</v>
+        <v>0.4425612908087611</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>27471.02575284021</v>
+        <v>24004.05222023024</v>
       </c>
       <c r="R13">
-        <v>27471.02575284021</v>
+        <v>216036.4699820721</v>
       </c>
       <c r="S13">
-        <v>0.1575499645382034</v>
+        <v>0.1284676317430002</v>
       </c>
       <c r="T13">
-        <v>0.1575499645382034</v>
+        <v>0.1284676317430002</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>159.201538701672</v>
+        <v>139.106753</v>
       </c>
       <c r="H14">
-        <v>159.201538701672</v>
+        <v>417.320259</v>
       </c>
       <c r="I14">
-        <v>0.5380025951657157</v>
+        <v>0.442561290808761</v>
       </c>
       <c r="J14">
-        <v>0.5380025951657157</v>
+        <v>0.4425612908087611</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>17714.00353994442</v>
+        <v>15508.75653834041</v>
       </c>
       <c r="R14">
-        <v>17714.00353994442</v>
+        <v>139578.8088450637</v>
       </c>
       <c r="S14">
-        <v>0.1015921522063772</v>
+        <v>0.08300153680219964</v>
       </c>
       <c r="T14">
-        <v>0.1015921522063772</v>
+        <v>0.08300153680219967</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>159.201538701672</v>
+        <v>139.106753</v>
       </c>
       <c r="H15">
-        <v>159.201538701672</v>
+        <v>417.320259</v>
       </c>
       <c r="I15">
-        <v>0.5380025951657157</v>
+        <v>0.442561290808761</v>
       </c>
       <c r="J15">
-        <v>0.5380025951657157</v>
+        <v>0.4425612908087611</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>13735.05694940578</v>
+        <v>12096.44256982136</v>
       </c>
       <c r="R15">
-        <v>13735.05694940578</v>
+        <v>108867.9831283923</v>
       </c>
       <c r="S15">
-        <v>0.07877236746739807</v>
+        <v>0.06473912467789393</v>
       </c>
       <c r="T15">
-        <v>0.07877236746739807</v>
+        <v>0.06473912467789394</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>139.106753</v>
+      </c>
+      <c r="H16">
+        <v>417.320259</v>
+      </c>
+      <c r="I16">
+        <v>0.442561290808761</v>
+      </c>
+      <c r="J16">
+        <v>0.4425612908087611</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N16">
+        <v>179.20309</v>
+      </c>
+      <c r="O16">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P16">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q16">
+        <v>8309.453325822256</v>
+      </c>
+      <c r="R16">
+        <v>74785.07993240029</v>
+      </c>
+      <c r="S16">
+        <v>0.04447148256691898</v>
+      </c>
+      <c r="T16">
+        <v>0.04447148256691898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>173.3336436666667</v>
+      </c>
+      <c r="H17">
+        <v>520.000931</v>
+      </c>
+      <c r="I17">
+        <v>0.5514524595488605</v>
+      </c>
+      <c r="J17">
+        <v>0.5514524595488606</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N17">
+        <v>491.135956</v>
+      </c>
+      <c r="O17">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P17">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q17">
+        <v>28376.79492973056</v>
+      </c>
+      <c r="R17">
+        <v>255391.154367575</v>
+      </c>
+      <c r="S17">
+        <v>0.1518701762366144</v>
+      </c>
+      <c r="T17">
+        <v>0.1518701762366144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>173.3336436666667</v>
+      </c>
+      <c r="H18">
+        <v>520.000931</v>
+      </c>
+      <c r="I18">
+        <v>0.5514524595488605</v>
+      </c>
+      <c r="J18">
+        <v>0.5514524595488606</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>172.558497</v>
+      </c>
+      <c r="N18">
+        <v>517.675491</v>
+      </c>
+      <c r="O18">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P18">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q18">
+        <v>29910.19303065357</v>
+      </c>
+      <c r="R18">
+        <v>269191.7372758821</v>
+      </c>
+      <c r="S18">
+        <v>0.1600767915504559</v>
+      </c>
+      <c r="T18">
+        <v>0.1600767915504559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>173.3336436666667</v>
+      </c>
+      <c r="H19">
+        <v>520.000931</v>
+      </c>
+      <c r="I19">
+        <v>0.5514524595488605</v>
+      </c>
+      <c r="J19">
+        <v>0.5514524595488606</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N19">
+        <v>334.464493</v>
+      </c>
+      <c r="O19">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P19">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q19">
+        <v>19324.64974960478</v>
+      </c>
+      <c r="R19">
+        <v>173921.847746443</v>
+      </c>
+      <c r="S19">
+        <v>0.1034238704706032</v>
+      </c>
+      <c r="T19">
+        <v>0.1034238704706032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>173.3336436666667</v>
+      </c>
+      <c r="H20">
+        <v>520.000931</v>
+      </c>
+      <c r="I20">
+        <v>0.5514524595488605</v>
+      </c>
+      <c r="J20">
+        <v>0.5514524595488606</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N20">
+        <v>260.873947</v>
+      </c>
+      <c r="O20">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P20">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q20">
+        <v>15072.7439237383</v>
+      </c>
+      <c r="R20">
+        <v>135654.6953136447</v>
+      </c>
+      <c r="S20">
+        <v>0.08066803462956233</v>
+      </c>
+      <c r="T20">
+        <v>0.08066803462956235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>159.201538701672</v>
-      </c>
-      <c r="H16">
-        <v>159.201538701672</v>
-      </c>
-      <c r="I16">
-        <v>0.5380025951657157</v>
-      </c>
-      <c r="J16">
-        <v>0.5380025951657157</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="N16">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="O16">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="P16">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="Q16">
-        <v>9080.219874664988</v>
-      </c>
-      <c r="R16">
-        <v>9080.219874664988</v>
-      </c>
-      <c r="S16">
-        <v>0.05207626144446574</v>
-      </c>
-      <c r="T16">
-        <v>0.05207626144446574</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>173.3336436666667</v>
+      </c>
+      <c r="H21">
+        <v>520.000931</v>
+      </c>
+      <c r="I21">
+        <v>0.5514524595488605</v>
+      </c>
+      <c r="J21">
+        <v>0.5514524595488606</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N21">
+        <v>179.20309</v>
+      </c>
+      <c r="O21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q21">
+        <v>10353.9748486752</v>
+      </c>
+      <c r="R21">
+        <v>93185.77363807679</v>
+      </c>
+      <c r="S21">
+        <v>0.05541358666162464</v>
+      </c>
+      <c r="T21">
+        <v>0.05541358666162464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.07215633333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.216469</v>
+      </c>
+      <c r="I22">
+        <v>0.0002295618245077378</v>
+      </c>
+      <c r="J22">
+        <v>0.0002295618245077379</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N22">
+        <v>491.135956</v>
+      </c>
+      <c r="O22">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P22">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q22">
+        <v>11.81285658437378</v>
+      </c>
+      <c r="R22">
+        <v>106.315709259364</v>
+      </c>
+      <c r="S22">
+        <v>6.322139677046785E-05</v>
+      </c>
+      <c r="T22">
+        <v>6.322139677046786E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.07215633333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.216469</v>
+      </c>
+      <c r="I23">
+        <v>0.0002295618245077378</v>
+      </c>
+      <c r="J23">
+        <v>0.0002295618245077379</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>172.558497</v>
+      </c>
+      <c r="N23">
+        <v>517.675491</v>
+      </c>
+      <c r="O23">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P23">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q23">
+        <v>12.451188429031</v>
+      </c>
+      <c r="R23">
+        <v>112.060695861279</v>
+      </c>
+      <c r="S23">
+        <v>6.663769413546614E-05</v>
+      </c>
+      <c r="T23">
+        <v>6.663769413546615E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.07215633333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.216469</v>
+      </c>
+      <c r="I24">
+        <v>0.0002295618245077378</v>
+      </c>
+      <c r="J24">
+        <v>0.0002295618245077379</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N24">
+        <v>334.464493</v>
+      </c>
+      <c r="O24">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P24">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q24">
+        <v>8.044577148357444</v>
+      </c>
+      <c r="R24">
+        <v>72.40119433521701</v>
+      </c>
+      <c r="S24">
+        <v>4.305388794948331E-05</v>
+      </c>
+      <c r="T24">
+        <v>4.305388794948333E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.07215633333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.216469</v>
+      </c>
+      <c r="I25">
+        <v>0.0002295618245077378</v>
+      </c>
+      <c r="J25">
+        <v>0.0002295618245077379</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N25">
+        <v>260.873947</v>
+      </c>
+      <c r="O25">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P25">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q25">
+        <v>6.274569159238111</v>
+      </c>
+      <c r="R25">
+        <v>56.471122433143</v>
+      </c>
+      <c r="S25">
+        <v>3.358095677760763E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.358095677760764E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.07215633333333334</v>
+      </c>
+      <c r="H26">
+        <v>0.216469</v>
+      </c>
+      <c r="I26">
+        <v>0.0002295618245077378</v>
+      </c>
+      <c r="J26">
+        <v>0.0002295618245077379</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N26">
+        <v>179.20309</v>
+      </c>
+      <c r="O26">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P26">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q26">
+        <v>4.310212632134444</v>
+      </c>
+      <c r="R26">
+        <v>38.79191368921</v>
+      </c>
+      <c r="S26">
+        <v>2.306788887471285E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.306788887471285E-05</v>
       </c>
     </row>
   </sheetData>
